--- a/deployment/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="7755" yWindow="6825" windowWidth="20730" windowHeight="11760" tabRatio="377" activeTab="1"/>
   </bookViews>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$102</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$407</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="69">
   <si>
     <t>Ref Des</t>
   </si>
@@ -248,6 +253,15 @@
   </si>
   <si>
     <t>A00493</t>
+  </si>
+  <si>
+    <t>CP02PMUI-RII01-02-ADCPTG010</t>
+  </si>
+  <si>
+    <t>OL000333</t>
+  </si>
+  <si>
+    <t>OL000334</t>
   </si>
 </sst>
 </file>
@@ -597,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,7 +646,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -950,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E2:E4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -969,7 +983,7 @@
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -1023,8 +1037,19 @@
       <c r="I2" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <f>MATCH(A2,K:K,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <f>MATCH(K2,A:A,0)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1049,8 +1074,19 @@
       <c r="H3" s="17">
         <v>40.36495</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" ref="J3:J39" si="0">MATCH(A3,K:K,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="1">MATCH(K3,A:A,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1075,8 +1111,19 @@
       <c r="H4" s="17">
         <v>-70.769350000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1085,8 +1132,19 @@
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1099,12 +1157,38 @@
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
       <c r="F6" s="8">
         <v>24436</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="J7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1129,8 +1213,19 @@
       <c r="H8" s="10">
         <v>-839.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1250,19 @@
       <c r="H9" s="17">
         <v>40.36495</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1181,8 +1287,19 @@
       <c r="H10" s="17">
         <v>-70.769350000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1207,8 +1324,12 @@
       <c r="H11" s="10">
         <v>2.9967999999999998E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1233,8 +1354,12 @@
       <c r="H12" s="10">
         <v>-4.1168000000000003E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1259,8 +1384,12 @@
       <c r="H13" s="10">
         <v>2.4818000000000003E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1285,8 +1414,12 @@
       <c r="H14" s="10">
         <v>-3.8820000000000003E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1311,8 +1444,12 @@
       <c r="H15" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -1321,8 +1458,12 @@
       <c r="F16" s="9"/>
       <c r="G16" s="7"/>
       <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1347,8 +1488,12 @@
       <c r="H17" s="17">
         <v>40.36495</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -1373,8 +1518,12 @@
       <c r="H18" s="17">
         <v>-70.769350000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1383,8 +1532,12 @@
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -1409,8 +1562,12 @@
       <c r="H20" s="17">
         <v>40.36495</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
@@ -1435,8 +1592,12 @@
       <c r="H21" s="17">
         <v>-70.769350000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -1445,8 +1606,12 @@
       <c r="F22" s="9"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1471,8 +1636,12 @@
       <c r="H23" s="12">
         <v>1.0760000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1497,8 +1666,12 @@
       <c r="H24" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1696,12 @@
       <c r="H25" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1549,8 +1726,12 @@
       <c r="H26" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1575,8 +1756,12 @@
       <c r="H27" s="12">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1601,8 +1786,12 @@
       <c r="H28" s="12">
         <v>700</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1627,8 +1816,12 @@
       <c r="H29" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1653,8 +1846,12 @@
       <c r="H30" s="7">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1679,8 +1876,12 @@
       <c r="H31" s="13">
         <v>2.12E-6</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
@@ -1705,8 +1906,12 @@
       <c r="H32" s="12">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -1715,8 +1920,12 @@
       <c r="F33" s="8"/>
       <c r="G33" s="7"/>
       <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -1741,8 +1950,12 @@
       <c r="H34" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -1767,12 +1980,20 @@
       <c r="H35" s="13">
         <v>9.9799999999999993E-18</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1791,16 +2012,24 @@
       <c r="F37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="19" t="s">
         <v>52</v>
       </c>
@@ -1813,12 +2042,18 @@
       <c r="D39" s="8">
         <v>2</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
       <c r="F39" s="8">
         <v>23436</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>54</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="6825" windowWidth="20730" windowHeight="11760" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="7755" yWindow="6825" windowWidth="20730" windowHeight="11760" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -948,8 +948,14 @@
         <v>46</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="M2" s="14">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>40.36495</v>
+      </c>
+      <c r="N2" s="14">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.769350000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -966,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
